--- a/pyduq/tests/summary.xlsx
+++ b/pyduq/tests/summary.xlsx
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -702,7 +702,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ApplicantAddressLine4</t>
+          <t>ApplicationDesc</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -739,7 +739,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ApplicationDesc</t>
+          <t>ApplicationType</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -776,7 +776,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ApplicationType</t>
+          <t>PropertyAddress</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -813,7 +813,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PropertyAddress</t>
+          <t>PropertySuburbPostCode</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -850,7 +850,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PropertySuburbPostCode</t>
+          <t>PrivateCertifierName</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -887,7 +887,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PrivateCertifierName</t>
+          <t>PrivateCertiferAddressLine1</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -924,7 +924,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PrivateCertiferAddressLine1</t>
+          <t>PrivateCertiferAddressLine2</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -961,7 +961,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PrivateCertiferAddressLine2</t>
+          <t>PrivateCertiferAddressLine3</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -998,7 +998,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PrivateCertiferAddressLine3</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1029,13 +1029,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PrivateCertiferAddressLine4</t>
+          <t>Decision</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1072,7 +1072,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Decision</t>
+          <t>ApprovalDate</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1109,7 +1109,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ApprovalDate</t>
+          <t>Authority</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1146,7 +1146,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Authority</t>
+          <t>ApprovalConditions</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1183,7 +1183,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ApprovalConditions</t>
+          <t>Fees</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1220,7 +1220,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fees</t>
+          <t>WorkCommencementDate</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1257,7 +1257,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>WorkCommencementDate</t>
+          <t>Application_Date</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1294,7 +1294,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Application_Date</t>
+          <t>Consents</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1331,7 +1331,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Consents</t>
+          <t>BuildingCertifiers</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1368,7 +1368,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BuildingCertifiers</t>
+          <t>PrivateCertAppDates</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1405,7 +1405,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PrivateCertAppDates</t>
+          <t>CommenceDate</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1442,7 +1442,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CommenceDate</t>
+          <t>CompleteDate</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1479,7 +1479,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CompleteDate</t>
+          <t>UADecs</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1516,7 +1516,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>UADecs</t>
+          <t>Referrals</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1553,7 +1553,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Referrals</t>
+          <t>ContaminationNotice</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1590,7 +1590,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ContaminationNotice</t>
+          <t>CertifierLodgementDates</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CertifierLodgementDates</t>
+          <t>ValueOfDevelopment</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ValueOfDevelopment</t>
+          <t>AppDescr</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1701,7 +1701,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>AppDescr</t>
+          <t>NumDwellings</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1738,7 +1738,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>NumDwellings</t>
+          <t>VgNumber</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1769,43 +1769,6 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>VgNumber</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
         <v>0</v>
       </c>
     </row>
